--- a/acm/rules/drools-start-business-process-rules.xlsx
+++ b/acm/rules/drools-start-business-process-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEACE11-DAE6-4957-8132-C79B7794E3E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07654659-6B36-4786-A28A-FEE56A641BB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F948759-4704-4BDD-9D08-54412C8134D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0F2BC0-021F-42DF-965C-9F87510D22DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,7 +517,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E90BA61-F3D6-479A-8F3A-623DA7527FE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BB14C4-315B-424A-8A2A-87F79A1D673D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A23E4C-5DB2-47B4-AFAE-80E8ECD37CCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A4912D-98F8-47CB-AD02-643EFF9B7438}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -615,7 +615,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B726BCAC-55B7-4ADF-8531-9E7178363856}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2932CF83-864C-4427-840D-67028D009A4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
